--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/133.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/133.xlsx
@@ -479,13 +479,13 @@
         <v>0.07252658337060783</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.046454991242654</v>
+        <v>-1.985160402912182</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07414588394680051</v>
+        <v>0.05865999796416732</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1078995801248993</v>
+        <v>-0.1310991329063652</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.083190361817378</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.219437034057878</v>
+        <v>-2.134343340920696</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01840462337811875</v>
+        <v>0.02183847678821031</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1086949166873788</v>
+        <v>-0.1233452113428672</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.09072139155440083</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.365404470258577</v>
+        <v>-2.24689871252846</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02073635012532657</v>
+        <v>0.01084526651050332</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1219015291010045</v>
+        <v>-0.1407090430892076</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.07644540157386617</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.461514550659182</v>
+        <v>-2.338544783495946</v>
       </c>
       <c r="F5" t="n">
-        <v>0.05944008650972808</v>
+        <v>0.03698951631930882</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1393806358552503</v>
+        <v>-0.1626442303077748</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.03046098740320103</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.421415925687058</v>
+        <v>-2.266027044792632</v>
       </c>
       <c r="F6" t="n">
-        <v>0.05772681932874279</v>
+        <v>0.05138303436988624</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1467606760439019</v>
+        <v>-0.1512997057202609</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.04002751481910979</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.095112023150908</v>
+        <v>-1.979033749714247</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1735226994920686</v>
+        <v>0.1500072078000472</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1271139112044934</v>
+        <v>-0.150398852880704</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.1201683684099055</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.782885089834102</v>
+        <v>-1.650122436284999</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1872733611493536</v>
+        <v>0.2052629715100375</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.09935947080907302</v>
+        <v>-0.1244015939549948</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.1936258855645035</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.374069288385444</v>
+        <v>-1.249365516738213</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1789326958948239</v>
+        <v>0.232341619795621</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.09421417998002642</v>
+        <v>-0.1008891518663572</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.2450449669107078</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.9384535724004766</v>
+        <v>-0.7941670775848955</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1677876153686066</v>
+        <v>0.2408536727603169</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.01153272311938293</v>
+        <v>-0.05368739069282495</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.2570285427277411</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.4061629894682346</v>
+        <v>-0.2426652131764432</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0862406109667145</v>
+        <v>0.1929383043949895</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0467946011187106</v>
+        <v>0.01295254244866786</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.2140746083185503</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1218984034914362</v>
+        <v>0.2986570751370839</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.1197863241940422</v>
+        <v>0.02045456677266897</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1349104512091793</v>
+        <v>0.08716952015740179</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.1061683199557156</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6697480628875211</v>
+        <v>0.8468915944801968</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.2513669514716078</v>
+        <v>-0.1401168101120853</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2301276077390256</v>
+        <v>0.188705454898358</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.06618342982884677</v>
       </c>
       <c r="E14" t="n">
-        <v>1.227059421741999</v>
+        <v>1.413208432126859</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.4851446675037244</v>
+        <v>-0.3611227871730975</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3708204499272071</v>
+        <v>0.2919766139646624</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.2904665595554812</v>
       </c>
       <c r="E15" t="n">
-        <v>1.776146000270528</v>
+        <v>1.981303798466919</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.7983011199318938</v>
+        <v>-0.6562981681300574</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4884528012482213</v>
+        <v>0.3963547790592646</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.5479033456061304</v>
       </c>
       <c r="E16" t="n">
-        <v>2.289878526771357</v>
+        <v>2.482221891549271</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.024847006499809</v>
+        <v>-0.907038998023891</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5853008856676919</v>
+        <v>0.5016307473900399</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.8183476566889855</v>
       </c>
       <c r="E17" t="n">
-        <v>2.771659748700062</v>
+        <v>2.953682035786045</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.346320337276115</v>
+        <v>-1.212479953891197</v>
       </c>
       <c r="G17" t="n">
-        <v>0.708695157621945</v>
+        <v>0.6200297690017263</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.090896809245433</v>
       </c>
       <c r="E18" t="n">
-        <v>3.170230712541383</v>
+        <v>3.335371615136334</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.669020828454038</v>
+        <v>-1.55770786526481</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8606440858995119</v>
+        <v>0.7824046813276245</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.354240939792083</v>
       </c>
       <c r="E19" t="n">
-        <v>3.473170993634022</v>
+        <v>3.678279998176273</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.973781112846093</v>
+        <v>-1.874396978252704</v>
       </c>
       <c r="G19" t="n">
-        <v>1.009834952876824</v>
+        <v>0.9122238576907418</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.595744148778664</v>
       </c>
       <c r="E20" t="n">
-        <v>3.80275017020431</v>
+        <v>4.016407822951861</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.238902042535616</v>
+        <v>-2.163775673097851</v>
       </c>
       <c r="G20" t="n">
-        <v>1.140266489599396</v>
+        <v>1.059431262627269</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.798643954529115</v>
       </c>
       <c r="E21" t="n">
-        <v>4.03467616706182</v>
+        <v>4.221525366383587</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.499944432659724</v>
+        <v>-2.455425712543207</v>
       </c>
       <c r="G21" t="n">
-        <v>1.285460546381979</v>
+        <v>1.184565028351608</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.953976283892965</v>
       </c>
       <c r="E22" t="n">
-        <v>4.193727621620117</v>
+        <v>4.39952095716168</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.783633177511488</v>
+        <v>-2.751424486413776</v>
       </c>
       <c r="G22" t="n">
-        <v>1.358603453778959</v>
+        <v>1.30450287983073</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>2.056803203724389</v>
       </c>
       <c r="E23" t="n">
-        <v>4.356038492274958</v>
+        <v>4.53013668992863</v>
       </c>
       <c r="F23" t="n">
-        <v>-3.059602766278328</v>
+        <v>-3.052994580706101</v>
       </c>
       <c r="G23" t="n">
-        <v>1.473832717633586</v>
+        <v>1.408601701255381</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>2.109753348863069</v>
       </c>
       <c r="E24" t="n">
-        <v>4.426315992332575</v>
+        <v>4.635461451913545</v>
       </c>
       <c r="F24" t="n">
-        <v>-3.241318568224246</v>
+        <v>-3.242642706013465</v>
       </c>
       <c r="G24" t="n">
-        <v>1.590974082809818</v>
+        <v>1.51917544058439</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.116020584094064</v>
       </c>
       <c r="E25" t="n">
-        <v>4.498897772706948</v>
+        <v>4.69999837856161</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.375966791545515</v>
+        <v>-3.37903438758922</v>
       </c>
       <c r="G25" t="n">
-        <v>1.675969578718044</v>
+        <v>1.595824172031319</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.082079996367483</v>
       </c>
       <c r="E26" t="n">
-        <v>4.493624398535784</v>
+        <v>4.702833289867136</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.497603882030057</v>
+        <v>-3.480933530093179</v>
       </c>
       <c r="G26" t="n">
-        <v>1.72255714977009</v>
+        <v>1.633783195269411</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.018129129488935</v>
       </c>
       <c r="E27" t="n">
-        <v>4.46179873762307</v>
+        <v>4.655048444526632</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.568500146614237</v>
+        <v>-3.567279695340064</v>
       </c>
       <c r="G27" t="n">
-        <v>1.717491148629021</v>
+        <v>1.638675369017607</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.934802157085908</v>
       </c>
       <c r="E28" t="n">
-        <v>4.375908488082056</v>
+        <v>4.587594877202357</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.579579660667704</v>
+        <v>-3.57879621755842</v>
       </c>
       <c r="G28" t="n">
-        <v>1.704341258838333</v>
+        <v>1.620660141988499</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.844099383012509</v>
       </c>
       <c r="E29" t="n">
-        <v>4.210472383879559</v>
+        <v>4.429278986980218</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.565273361273901</v>
+        <v>-3.561376578070158</v>
       </c>
       <c r="G29" t="n">
-        <v>1.66667499752508</v>
+        <v>1.584260685920852</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.752512182876747</v>
       </c>
       <c r="E30" t="n">
-        <v>4.069997893293653</v>
+        <v>4.2914173965735</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.432201782902025</v>
+        <v>-3.429894148021548</v>
       </c>
       <c r="G30" t="n">
-        <v>1.624043371982421</v>
+        <v>1.546618211513992</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.66547218956825</v>
       </c>
       <c r="E31" t="n">
-        <v>3.901582936505919</v>
+        <v>4.125349414549893</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.377212554527773</v>
+        <v>-3.357211120814836</v>
       </c>
       <c r="G31" t="n">
-        <v>1.502586818018196</v>
+        <v>1.451659661351087</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.583022800436791</v>
       </c>
       <c r="E32" t="n">
-        <v>3.672105161244876</v>
+        <v>3.918073971763833</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.234910741594331</v>
+        <v>-3.213195735740069</v>
       </c>
       <c r="G32" t="n">
-        <v>1.455417992561209</v>
+        <v>1.402282313123595</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.506287988016359</v>
       </c>
       <c r="E33" t="n">
-        <v>3.43810787376913</v>
+        <v>3.685026940702461</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.132622774658944</v>
+        <v>-3.082365310894904</v>
       </c>
       <c r="G33" t="n">
-        <v>1.326331330930866</v>
+        <v>1.283971730010037</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.434159736490104</v>
       </c>
       <c r="E34" t="n">
-        <v>3.144695773488649</v>
+        <v>3.4011649783785</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.832539057055854</v>
+        <v>-2.817558795314245</v>
       </c>
       <c r="G34" t="n">
-        <v>1.171660326672972</v>
+        <v>1.144836015309593</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.364670701622147</v>
       </c>
       <c r="E35" t="n">
-        <v>2.916763537222486</v>
+        <v>3.175312571620048</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.727652218116844</v>
+        <v>-2.707807229057492</v>
       </c>
       <c r="G35" t="n">
-        <v>1.081309117302222</v>
+        <v>1.058512722088087</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.295225572532826</v>
       </c>
       <c r="E36" t="n">
-        <v>2.621177679650074</v>
+        <v>2.9006835885007</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.563617101708838</v>
+        <v>-2.563718958461854</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9701400953927071</v>
+        <v>0.9716648970845772</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.223825065179369</v>
       </c>
       <c r="E37" t="n">
-        <v>2.350282630913778</v>
+        <v>2.628828524619202</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.472838337943687</v>
+        <v>-2.443042493043191</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9321755828685242</v>
+        <v>0.8991898528286357</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.148034020059353</v>
       </c>
       <c r="E38" t="n">
-        <v>2.109354814788144</v>
+        <v>2.388595408144384</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.316239374426593</v>
+        <v>-2.329769854719572</v>
       </c>
       <c r="G38" t="n">
-        <v>0.8493221283770378</v>
+        <v>0.8195232338731578</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.065654733357773</v>
       </c>
       <c r="E39" t="n">
-        <v>1.872363426710242</v>
+        <v>2.146766739179193</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.201289454241917</v>
+        <v>-2.218721597104053</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7005618653975096</v>
+        <v>0.7080760881350457</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.9763340611075513</v>
       </c>
       <c r="E40" t="n">
-        <v>1.63989765005381</v>
+        <v>1.904559919394418</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.163615263959866</v>
+        <v>-2.157023241285573</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6120544462325688</v>
+        <v>0.624690782813435</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.8789015119768164</v>
       </c>
       <c r="E41" t="n">
-        <v>1.349922452786804</v>
+        <v>1.619453718889892</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.050998900284427</v>
+        <v>-2.054283323128716</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5556172661717175</v>
+        <v>0.5544480482343914</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.7751352176127496</v>
       </c>
       <c r="E42" t="n">
-        <v>1.132297875957683</v>
+        <v>1.402395148448793</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.978178640925447</v>
+        <v>-1.980155393838787</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5031756764642427</v>
+        <v>0.4901056862822085</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.6662541051066059</v>
       </c>
       <c r="E43" t="n">
-        <v>0.9218185198566654</v>
+        <v>1.17359255537691</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.878606040842942</v>
+        <v>-1.880462639382964</v>
       </c>
       <c r="G43" t="n">
-        <v>0.415851503412193</v>
+        <v>0.4142980354485157</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.5552533982145426</v>
       </c>
       <c r="E44" t="n">
-        <v>0.7256851079934389</v>
+        <v>0.9889043050128611</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.810208926231738</v>
+        <v>-1.811937441429643</v>
       </c>
       <c r="G44" t="n">
-        <v>0.3992378740982526</v>
+        <v>0.3869674899234352</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.4448597574686746</v>
       </c>
       <c r="E45" t="n">
-        <v>0.5835247966570016</v>
+        <v>0.8089392803695489</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.779573830480037</v>
+        <v>-1.756895149956514</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3392826715739186</v>
+        <v>0.3114629696660861</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.3405552654334494</v>
       </c>
       <c r="E46" t="n">
-        <v>0.4242976849438001</v>
+        <v>0.6406688747822039</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.725356151761872</v>
+        <v>-1.707015837012058</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2530685541535503</v>
+        <v>0.2324599444069102</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.2447251073242407</v>
       </c>
       <c r="E47" t="n">
-        <v>0.2940582732344035</v>
+        <v>0.4909693339604838</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.679385820434694</v>
+        <v>-1.660164170306979</v>
       </c>
       <c r="G47" t="n">
-        <v>0.1851917018796124</v>
+        <v>0.1682352971453397</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.1614628073723321</v>
       </c>
       <c r="E48" t="n">
-        <v>0.2086669388069684</v>
+        <v>0.3415320590297654</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.577368048359107</v>
+        <v>-1.547443510195817</v>
       </c>
       <c r="G48" t="n">
-        <v>0.09554922033524336</v>
+        <v>0.08449257830715456</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.09150851506492189</v>
       </c>
       <c r="E49" t="n">
-        <v>0.1087857188620297</v>
+        <v>0.2408060989475306</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.478729236832704</v>
+        <v>-1.453627341460461</v>
       </c>
       <c r="G49" t="n">
-        <v>0.08716037134725058</v>
+        <v>0.06987216976482687</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.03538028488573394</v>
       </c>
       <c r="E50" t="n">
-        <v>0.04731547337665344</v>
+        <v>0.1498126431041646</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.42409498229232</v>
+        <v>-1.363292599947983</v>
       </c>
       <c r="G50" t="n">
-        <v>0.02380242136733906</v>
+        <v>0.009802912073940885</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.008254145526868538</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.08714641917786992</v>
+        <v>0.02903249117045366</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.287122046311625</v>
+        <v>-1.256573559296022</v>
       </c>
       <c r="G51" t="n">
-        <v>-0.006420977927557456</v>
+        <v>-0.02975654301993815</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.04133878797918852</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.1489722484177903</v>
+        <v>-0.04405369360358938</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.219331192853108</v>
+        <v>-1.194683688385043</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.07949191468468179</v>
+        <v>-0.08755567595196787</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.06566328589986557</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.2717505004885279</v>
+        <v>-0.1594671535025941</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.144218851590908</v>
+        <v>-1.109249049589558</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.1234653657161865</v>
+        <v>-0.1413220133693394</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.08354856856626283</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.3907417550773367</v>
+        <v>-0.2791518879008655</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.069682275447558</v>
+        <v>-1.042171803322837</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.1974554529331702</v>
+        <v>-0.2067561333329013</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.0962519472758311</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.3978790468366425</v>
+        <v>-0.3219646598845187</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.016377038061808</v>
+        <v>-1.005642434151043</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.2280075994728339</v>
+        <v>-0.2372783937594044</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.1057473481873316</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.4911090818016436</v>
+        <v>-0.4220636215110565</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.9830064480748919</v>
+        <v>-0.9788541081075911</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.2714101647509025</v>
+        <v>-0.2914741153332066</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.1124246937128319</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.5688629895148396</v>
+        <v>-0.4978724921861029</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.9467893582895922</v>
+        <v>-0.9362176031995181</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.2810853364461569</v>
+        <v>-0.3128683029114982</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.1172582503318061</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.6355321988488163</v>
+        <v>-0.5949608853522123</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.8989038760374254</v>
+        <v>-0.8923801644789282</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.3535518418126239</v>
+        <v>-0.3647060711489924</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.1210111976236713</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.7472763759565048</v>
+        <v>-0.6853157542470231</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.9281239558190714</v>
+        <v>-0.899098440733308</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.3375969268295714</v>
+        <v>-0.3682155547230007</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.1244411600176662</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.9355064356904299</v>
+        <v>-0.848023073341749</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.9701810360842338</v>
+        <v>-0.9277683720645272</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.3784951578089125</v>
+        <v>-0.4090540134760204</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.1282871612844153</v>
       </c>
       <c r="E61" t="n">
-        <v>-1.086062915062981</v>
+        <v>-0.9930951459889815</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.9807857268908522</v>
+        <v>-0.9421204155090859</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.409573055971933</v>
+        <v>-0.4396628826386217</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.1334285022634922</v>
       </c>
       <c r="E62" t="n">
-        <v>-1.156511192910089</v>
+        <v>-1.074016981697207</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.922029018496328</v>
+        <v>-0.9140372278688983</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.4425349991054283</v>
+        <v>-0.475060239034372</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.1412992137797377</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.264250020933573</v>
+        <v>-1.17213431104499</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.9713093893362177</v>
+        <v>-0.9612023938018256</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.4623086274456004</v>
+        <v>-0.4988520247929603</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.1528618445596026</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.380938215046981</v>
+        <v>-1.27109638053007</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.022090774961584</v>
+        <v>-0.9934123047408905</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.4766625006521891</v>
+        <v>-0.516525086322412</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.1692695611607284</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.440299964752839</v>
+        <v>-1.348297090189455</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.056565931294091</v>
+        <v>-1.01179104449334</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.4976620695526248</v>
+        <v>-0.546957688409433</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.1908907580796294</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.495616110609827</v>
+        <v>-1.411480602855817</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.058837275894301</v>
+        <v>-1.020271991503521</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.5516296807933232</v>
+        <v>-0.5920692514237497</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.2185019997270094</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.572150176969527</v>
+        <v>-1.487626759665105</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.106081731515206</v>
+        <v>-1.071170481898824</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.5630437363379863</v>
+        <v>-0.61550240382441</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.2514765261144856</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.66599135245263</v>
+        <v>-1.555474335746559</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.144778758772163</v>
+        <v>-1.087659687394707</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.5971578196298587</v>
+        <v>-0.6390874264735807</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.2890441191124102</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.630435416680925</v>
+        <v>-1.554866854752518</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.232338361205437</v>
+        <v>-1.158249466838821</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.5808576895437669</v>
+        <v>-0.6326466641271212</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.3295835781766835</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.634238882021126</v>
+        <v>-1.574541675943056</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.214606747291018</v>
+        <v>-1.159127752613338</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.5980367153250526</v>
+        <v>-0.6607475394669345</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.3713181560075942</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.635900915865264</v>
+        <v>-1.574427010855828</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.281173489951301</v>
+        <v>-1.196356090880686</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.61617575625154</v>
+        <v>-0.6561365391507192</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.4120261019772991</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.607807359573572</v>
+        <v>-1.550551665964525</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.42212188890304</v>
+        <v>-1.301824184224637</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.6251422001204131</v>
+        <v>-0.6629237364415715</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.4491832715758659</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.551969731537964</v>
+        <v>-1.488934429596052</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.451057745649321</v>
+        <v>-1.362382598298275</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.6627987027028382</v>
+        <v>-0.6812591718259717</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.4819837967177166</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.472272616548649</v>
+        <v>-1.402482443111752</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.510393878686756</v>
+        <v>-1.406240774321874</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.6598967001228709</v>
+        <v>-0.7013408101079015</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.5094318453325221</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.333042364143309</v>
+        <v>-1.260542923060298</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.538712495708168</v>
+        <v>-1.433809798831563</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.6629975368434581</v>
+        <v>-0.6965815990672364</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.5319053339174478</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.183060430048255</v>
+        <v>-1.115337277784858</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.57222275753006</v>
+        <v>-1.466505206629319</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.6117946960304587</v>
+        <v>-0.6438856724375577</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.5490048421111681</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.053096702484748</v>
+        <v>-0.9776177988958228</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.614067585399714</v>
+        <v>-1.51829296137132</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.5889641452584253</v>
+        <v>-0.6284302824887619</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.5623304847108249</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.8823335510915342</v>
+        <v>-0.8070461625951074</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.678685631497787</v>
+        <v>-1.57824328453024</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.5152003386125152</v>
+        <v>-0.5598392131023521</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.572529603838194</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.6684837733308069</v>
+        <v>-0.6040456538323745</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.655384831883981</v>
+        <v>-1.575624895064961</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.4777505991395077</v>
+        <v>-0.5144385476872568</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.5813142375821518</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.4595279990803059</v>
+        <v>-0.3899092133535756</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.793290336579424</v>
+        <v>-1.683435693728301</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.4073151296266117</v>
+        <v>-0.4605264392281425</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.5883559487223645</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.1797970294999604</v>
+        <v>-0.141281758604674</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.807328270875457</v>
+        <v>-1.682198164675179</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.386022798801337</v>
+        <v>-0.4352982902758126</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.5938443267051347</v>
       </c>
       <c r="E82" t="n">
-        <v>0.05125129150370866</v>
+        <v>0.08149176857755412</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.869833551749275</v>
+        <v>-1.732677029644879</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2565744542096827</v>
+        <v>-0.3231393671079355</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.5974118400092927</v>
       </c>
       <c r="E83" t="n">
-        <v>0.312818823330497</v>
+        <v>0.3288255815710731</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.929078196685198</v>
+        <v>-1.768686136479408</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.1967137893902445</v>
+        <v>-0.2741676161304804</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.5990016118083044</v>
       </c>
       <c r="E84" t="n">
-        <v>0.5739319642531081</v>
+        <v>0.5859150757891772</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.917970931240939</v>
+        <v>-1.74664787266647</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.110120301308939</v>
+        <v>-0.1890891710102171</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.5992067675875703</v>
       </c>
       <c r="E85" t="n">
-        <v>0.7741933192565654</v>
+        <v>0.8013036834173399</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.919814111526071</v>
+        <v>-1.728507611898629</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.04785349941972978</v>
+        <v>-0.1288296180681857</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.597454584092136</v>
       </c>
       <c r="E86" t="n">
-        <v>1.026579715136265</v>
+        <v>1.040607280780794</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.895220889998236</v>
+        <v>-1.663771241189267</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.01770999973348726</v>
+        <v>-0.08079104572615516</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.5939934643530252</v>
       </c>
       <c r="E87" t="n">
-        <v>1.197578295910704</v>
+        <v>1.223579824281151</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.793141515934298</v>
+        <v>-1.551463497376263</v>
       </c>
       <c r="G87" t="n">
-        <v>0.05358118848888624</v>
+        <v>-0.00759446530962072</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.587226011455247</v>
       </c>
       <c r="E88" t="n">
-        <v>1.372309591226841</v>
+        <v>1.381471819632951</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.732229957788822</v>
+        <v>-1.4656348498236</v>
       </c>
       <c r="G88" t="n">
-        <v>0.1046650947699198</v>
+        <v>0.03193266398839067</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.5773019648720434</v>
       </c>
       <c r="E89" t="n">
-        <v>1.455823589811246</v>
+        <v>1.455147797701409</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.570948023315657</v>
+        <v>-1.296584355690694</v>
       </c>
       <c r="G89" t="n">
-        <v>0.130374471136204</v>
+        <v>0.06418404953347448</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.5634285899179223</v>
       </c>
       <c r="E90" t="n">
-        <v>1.602303359380413</v>
+        <v>1.601400066858149</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.48387086813769</v>
+        <v>-1.179144739303532</v>
       </c>
       <c r="G90" t="n">
-        <v>0.1733537514646094</v>
+        <v>0.1084197664559809</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.5458858338101729</v>
       </c>
       <c r="E91" t="n">
-        <v>1.667763096012399</v>
+        <v>1.667523397186436</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.21566983903059</v>
+        <v>-0.941279944816527</v>
       </c>
       <c r="G91" t="n">
-        <v>0.1803910162329285</v>
+        <v>0.1192184120378052</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.5237336440259754</v>
       </c>
       <c r="E92" t="n">
-        <v>1.742188056671903</v>
+        <v>1.739798387460405</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.9671973041335822</v>
+        <v>-0.7136203430928701</v>
       </c>
       <c r="G92" t="n">
-        <v>0.2445760186505103</v>
+        <v>0.1491008656743996</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.4976579761470972</v>
       </c>
       <c r="E93" t="n">
-        <v>1.803002637429776</v>
+        <v>1.78130714903717</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.7407014310611607</v>
+        <v>-0.4962074087385807</v>
       </c>
       <c r="G93" t="n">
-        <v>0.2137329399480378</v>
+        <v>0.127599941977677</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.4691822433326256</v>
       </c>
       <c r="E94" t="n">
-        <v>1.858712792043943</v>
+        <v>1.815080896591417</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.5470540558763592</v>
+        <v>-0.3313800053714785</v>
       </c>
       <c r="G94" t="n">
-        <v>0.1591913933505195</v>
+        <v>0.05888627853524084</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.4409094149292521</v>
       </c>
       <c r="E95" t="n">
-        <v>1.8262924584714</v>
+        <v>1.789270273392793</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.3639497695098248</v>
+        <v>-0.162718640630338</v>
       </c>
       <c r="G95" t="n">
-        <v>0.11795526631626</v>
+        <v>0.03196255010155133</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.4144745059309498</v>
       </c>
       <c r="E96" t="n">
-        <v>1.834664839601121</v>
+        <v>1.77391003106957</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.1903084024430364</v>
+        <v>-0.01744712392180885</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0599682778157919</v>
+        <v>-0.01127167706973476</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.3902730891696776</v>
       </c>
       <c r="E97" t="n">
-        <v>1.713461402717747</v>
+        <v>1.661904807912233</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.04305525345575281</v>
+        <v>0.08605641492233658</v>
       </c>
       <c r="G97" t="n">
-        <v>0.03768665565283185</v>
+        <v>-0.03316660952363654</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.3666135810027306</v>
       </c>
       <c r="E98" t="n">
-        <v>1.590092747431917</v>
+        <v>1.544543261371695</v>
       </c>
       <c r="F98" t="n">
-        <v>0.03795929019533823</v>
+        <v>0.1322255803901343</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0006925269253551437</v>
+        <v>-0.06561499944730997</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.3424140330907114</v>
       </c>
       <c r="E99" t="n">
-        <v>1.446144148671255</v>
+        <v>1.400387899501615</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1149587260313968</v>
+        <v>0.184703765338214</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.02274428499936573</v>
+        <v>-0.0822676636845622</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.314989976730067</v>
       </c>
       <c r="E100" t="n">
-        <v>1.286013744435789</v>
+        <v>1.227779128140561</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1781934720346052</v>
+        <v>0.2239045870741652</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.02633122849932106</v>
+        <v>-0.09128656073163574</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.2858134379632606</v>
       </c>
       <c r="E101" t="n">
-        <v>1.144831135944179</v>
+        <v>1.100192871375019</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2085358058614676</v>
+        <v>0.2341049004720997</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.08692989733762435</v>
+        <v>-0.1265174087826338</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.2528520330162216</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9879339212161549</v>
+        <v>0.9364309994301954</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1975834602691027</v>
+        <v>0.2322074372467365</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.0702083120638996</v>
+        <v>-0.1350136038097343</v>
       </c>
     </row>
   </sheetData>
